--- a/pred_ohlcv/54_21/2020-01-20 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 LINK ohlcv.xlsx
@@ -1614,7 +1614,7 @@
         <v>-8738.998608465787</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-8738.998608465787</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-8233.247108465786</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-8219.310308465787</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-8219.310308465787</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-8928.003108465788</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-9069.858408465787</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-11547.05290846579</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-10485.46850846579</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-10420.14820846579</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-10367.69794973357</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-10366.25174973357</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-10352.17424973357</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-10352.17424973357</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-10352.17424973357</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-10348.31004973357</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-10476.07094973357</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-10806.83174973357</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-10682.98294973357</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-10632.98294973357</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-10603.64524973357</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-10788.70654973357</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-11035.41024973357</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-10935.41024973357</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-9541.375749733574</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-9541.375749733574</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-2994.256549733574</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-2995.256549733574</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-5263.581749733574</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-5263.331749733574</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-5261.331749733574</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-5261.331749733574</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-5262.331749733574</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-5278.507744557255</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-5012.045944557255</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-5432.042144557255</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-4533.031144557255</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-4661.409544557255</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-4661.409544557255</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-4318.310944557255</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-4178.655944557255</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-3152.789744557255</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-3152.789744557255</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-4243.313144557254</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-4080.107027959612</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-4257.665727959612</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-5911.072027959612</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-4824.739927959612</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-4824.739927959612</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-4794.780627959612</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-4792.935427959612</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-4449.488727959611</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>12911.69124612885</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>11280.04118362109</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>11280.04118362109</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>9735.055683621089</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>9735.055683621089</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>9741.97738362109</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>11743.21028362109</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>11743.21028362109</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>11713.21028362109</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>11713.21028362109</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>14603.56665841985</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>15613.09715841985</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>15024.37145841985</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>16373.54188362109</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>14649.11388362109</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>14100.03388362109</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>16043.09088362109</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>16042.08998362109</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>15926.49153160871</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>15926.49153160871</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>15922.60543160871</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>15589.81723160871</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>13421.47093160871</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>13421.66623160871</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>13399.68153160871</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>12005.80643160871</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>13585.36663160871</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>13363.56773160871</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>13363.56773160871</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>10355.89523160871</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>10355.89523160871</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>11540.56543160871</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>11385.56543160871</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>12122.20333160871</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>10430.45123160871</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>10430.45123160871</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>11249.12993160871</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>13173.99893160871</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>12308.95203160871</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>12458.95203160871</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>16431.57073160871</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>16238.94903160871</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>16098.94903160871</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>16098.94903160871</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>16098.94903160871</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>15167.06853160871</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>15467.06853160871</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>10964.02893160871</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>10844.64483160871</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>11400.70133160871</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>11390.43683160871</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>11392.43683160871</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>11391.43683160871</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>10936.78920565839</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>9001.256105658389</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>13465.11920565839</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>14980.05830565839</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>14980.05830565839</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>3106.22461559677</v>
       </c>
       <c r="H636">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>3088.63601559677</v>
       </c>
       <c r="H637">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>3088.63601559677</v>
       </c>
       <c r="H638">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>3089.746015596771</v>
       </c>
       <c r="H639">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>3098.730915596771</v>
       </c>
       <c r="H640">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>1833.826615596771</v>
       </c>
       <c r="H641">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>1833.826615596771</v>
       </c>
       <c r="H642">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>3184.521115596771</v>
       </c>
       <c r="H643">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>3696.284615596771</v>
       </c>
       <c r="H644">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>3696.284615596771</v>
       </c>
       <c r="H645">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>3696.284615596771</v>
       </c>
       <c r="H646">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 LINK ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>-14596.5581</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-14596.5581</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-10692.515</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-10692.515</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-10692.515</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-10413.9288</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-9434.964600000005</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-9428.174900000005</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-9428.174900000005</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-9428.174900000005</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-9228.206200000006</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-9227.506200000005</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-8738.998608465787</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-8738.998608465787</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-8233.247108465786</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-8219.310308465787</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-8219.310308465787</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-8928.003108465788</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-9069.858408465787</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-11547.05290846579</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-10485.46850846579</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-10420.14820846579</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-10367.69794973357</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-10366.25174973357</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-10352.17424973357</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-10352.17424973357</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-10352.17424973357</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-10348.31004973357</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-10476.07094973357</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-10806.83174973357</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-10682.98294973357</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-10632.98294973357</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-10603.64524973357</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-10788.70654973357</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-11035.41024973357</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-10935.41024973357</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-9541.375749733574</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-9541.375749733574</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-2994.256549733574</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-2995.256549733574</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-5263.581749733574</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-5263.331749733574</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-5261.331749733574</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-5261.331749733574</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-5262.331749733574</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-5278.507744557255</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-5012.045944557255</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-5432.042144557255</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-4533.031144557255</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-4661.409544557255</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-4661.409544557255</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-4318.310944557255</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-4178.655944557255</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-3152.789744557255</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-3152.789744557255</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-4243.313144557254</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-4080.107027959612</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-4257.665727959612</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-5911.072027959612</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-4824.739927959612</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-4824.739927959612</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-4794.780627959612</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-4792.935427959612</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-4449.488727959611</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>12571.59354612885</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>12911.69124612885</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>12911.69124612885</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>11280.04118362109</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>11280.04118362109</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>9780.716883621088</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>10231.04128362109</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>10219.24158362109</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>8219.241483621088</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>9735.055683621089</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>9735.055683621089</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>9741.97738362109</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>11743.21028362109</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>11743.21028362109</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>11713.21028362109</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>11713.21028362109</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>14603.56665841985</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>15613.09715841985</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>15024.37145841985</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>16373.54188362109</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>14649.11388362109</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>14100.03388362109</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>16043.09088362109</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>16042.08998362109</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>15926.49153160871</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>15926.49153160871</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>15922.60543160871</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>15589.81723160871</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>13421.47093160871</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>13421.66623160871</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>13399.68153160871</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>12005.80643160871</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>13585.36663160871</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>13363.56773160871</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>13363.56773160871</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>10355.89523160871</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>10355.89523160871</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>11385.56543160871</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>12308.95203160871</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>12458.95203160871</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>16431.57073160871</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>16238.94903160871</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>16098.94903160871</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>16098.94903160871</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>16098.94903160871</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>15167.06853160871</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>15467.06853160871</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>10844.64483160871</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-15666.28319434161</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-21001.40299434161</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-14450.52009434161</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-15304.18069434161</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-15304.18069434161</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-19184.86959434161</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-13592.79239434161</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-14753.82779434161</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>9746.760505658389</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>10936.78920565839</v>
       </c>
       <c r="H526">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>9001.256105658389</v>
       </c>
       <c r="H527">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>13465.11920565839</v>
       </c>
       <c r="H528">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>14980.05830565839</v>
       </c>
       <c r="H529">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>14980.05830565839</v>
       </c>
       <c r="H530">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
